--- a/bazara_bebidas.xlsx
+++ b/bazara_bebidas.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1892,6 +1892,6306 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jack Daniel's Old No. 7 Tennessee Whiskey, 1 L</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jack-daniels-old-jack-daniel's-old-no.-7-tennessee-whiskey-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jack Daniel's Tennessee Fire Whiskey, 750 ml</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jack-daniels-fire-jack-daniel's-tennessee-fire-whiskey-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jack Daniels Gentleman Whiskey, 750 ml</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-jac9336-jack-daniels-gentleman-whiskey-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jack Daniels Tennessee Honey Whiskey, 1 L</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jack-daniels-honey-jack-daniels-tennessee-honey-whiskey-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jameson Black Barrel Irish Whiskey, 750 ml</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jameson--blk-barrel-jameson-black-barrel-irish-whiskey-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jameson Black Barrel Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-jam4000-jameson-black-barrel-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jameson Caskmates Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-jam5663-jameson-caskmates-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jameson Irish Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jameson-irish-jameson-irish-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Johnnie Walker Black Label Scotch Whisky 12 Anos, 750 ml</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jw-black-label-12a-johnnie-walker-black-label-scotch-whisky-12-anos-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Johnnie Walker Blue Label Scotch Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jw-blue-label-johnnie-walker-blue-label-scotch-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Johnnie Walker Double Black Label Scotch Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jw-double-blk-label-johnnie-walker-double-black-label-scotch-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Johnnie Walker Gold Label Scotch Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jw-gold-label-johnnie-walker-gold-label-scotch-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Johnnie Walker Green Label Scotch Whisky 15 Anos, 750 ml</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jw-green-label-15a-johnnie-walker-green-label-scotch-whisky-15-anos-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Johnnie Walker Red Label Scotch Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-jw-red-label-johnnie-walker-red-label-scotch-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Khus Syrup Kalvert, 700 ml</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8906015310290-khus-syrup-kalvert-700-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Label 9h Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-lab3276-label-9h-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Leite de Coco com Natas de Coco e Banana Regal Thai, 290 ml</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8858768057932-leite-de-coco-com-natas-de-coco-e-banana-regal-thai-290-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Leite de Coco com Natas de Coco e Manga Regal Thai, 290 ml</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8858768057901-leite-de-coco-com-natas-de-coco-e-manga-regal-thai-290-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Licor Amarula Vanilla, 750 ml</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ama3776-licor-amarula-vanilla-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Licor Amarula, 375 ml</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ama2478-licor-amarula-375-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Licor Beevok Caramel, 750 ml</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-bee0226-licor-beevok-caramel-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Licor Beevok Chocolate, 750 ml</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-bee0233-licor-beevok-chocolate-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Licor Butlers Triple Sec, 750ml</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-but1109-licor-butlers-triple-sec-750ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Licor Campari Milano, 750 ml</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cam2509-licor-campari-milano-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Licor Campari, 750 ml</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cam2509-licor-campari-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Licor de Café Kahlua, 750 ml</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kah6256-licor-de-cafe-kahlua-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Licor de Laranja Butlers Blue Curacao, 750 ml</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-but1116-licor-de-laranja-butlers-blue-curacao-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Licor de Lima Southern Comfort, 750 ml</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-sou0052-licor-de-lima-southern-comfort-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Licor ISW Amarguinha, 700 ml</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-isw0014-licor-isw-amarguinha-700-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Licor Jack Daniels Tennessee Fire, 750 ml</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-jac1172-licor-jack-daniels-tennessee-fire-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Licor Jagermeister Herbal, 700 ml</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-jag4559-licor-jagermeister-herbal-700-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Licor KWV Wild Africa Cream ,750 ml</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv0027-licor-kwv-wild-africa-cream-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Licor Martini Fiero, 750 ml</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mar8022-martini-fiero-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Licor Martini Rosso, 750 ml</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mar4000-martini-rosso-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Licor Martini Rosso, 750 ml</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-martini-tinto-licor-martini-rosso-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Licor Martini Vermouth Bianco, 750 ml</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mar4009-licor-martini-vermouth-bianco-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Mabu Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mab8671-mabu-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Mala Térmica Azul Escuro, 22 L</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/od0224-mala-termica-azul-escuro-22-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Refresco Coca Cola, 1 L</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-coc4227-refresco-coca-cola-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Refresco Coca Cola, 1 L</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000054227-refresco-coca-cola-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Refresco Coca Cola, 2 L</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000000286-refresco-coca-cola-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Refresco Fanta Ananás, 1 L</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000021830-refresco-fanta-ananas-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Refresco Fanta Laranja, 1 L</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000006271-refresco-fanta-laranja-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Refresco Fanta Laranja, 2 L</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000004840-refresco-fanta-laranja-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Refresco Fanta Uva, 2 L</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-544900001007-refresco-fanta-uva-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Refresco Sparletta Cream Soda, 2 L</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000105660-refresco-sparletta-cream-soda-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Refresco Sparletta Morango, 1 L</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-544000139474-refresco-sparletta-morango-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Refresco Sparletta Pine Nut, 2 L</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000117977-refresco-sparletta-pine-nut-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Refresco Sprite, 1 L</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000234612-refresco-sprite-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Refrigerante Sprite, 2 L</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spr4864-refrigerante-sprite-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Rum Bacardi Mango, 750 ml</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-bac4835-rum-bacardi-mango-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Rum Bacardi Pineapple, 75 0ml</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-bac3838-rum-bacardi-pineapple-75-0ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Rum Bacardi Rasperberry, 750 ml</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-bac6761-rum-bacardi-rasperberry-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Rum Ouro Temperado Haywards, 750 ml</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-hay9250-rum-ouro-temperado-haywards-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Rum Red Heart Original, 750 ml</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-red0131-rum-red-heart-original-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Rum Tipo Tinto Estrela Oriente, 750 ml</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-39459-rum-tipo-tinto-estrela-oriente-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Russian Bear Vodka Triple Destilled, 750 ml</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-rus7729-russian-bear-vodka-triple-destilled-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Russian Bear Vodka Vanila, 750 ml</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-rus7804-russian-bear-vodka-vanila-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Schweppes Dry Lemon, 6 x 330 ml</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-swps-dry-lemon-lt-schweppes-dry-lemon-6-x-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Schweppes Ginger Ale, 330 ml</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-sch1478-schweppes-ginger-ale-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Schweppes Lemon Twist, 330 ml</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-schweppes-lt-330-schweppes-lemon-twist-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Scottish Leader Whisky 12, 750 ml</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-sco8134-scottish-leader-whisky-12-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Sidra Flying Fish Limão, 330 ml</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-sid9584-sidra-flying-fish-lim-o-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Sidra Strongbow Gold Apple, 330 ml</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-sid0317-sidra-strongbow-gold-apple-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Sidra Strongbow Red Berries, 330 ml</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-sid0317a-sidra-strongbow-red-berries-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Smirnoff 1818 Vodka, 750 ml</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vdk-smrnf-1818-smirnoff-1818-vodka-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Smirnoff Vodka White, 750 ml</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-smi0311-smirnoff-vodka-white-750-ml-</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Soda Schweppes, 6 x 330 ml</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-swps-soda-lt-soda-schweppes-6-x-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Sparletta Ananás, 2 L</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spa7977-sparletta-ananas-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sparletta Creme Soda, 2 L</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spa5660-sparletta-creme-soda-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sparletta Creme Soda, 2 L</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sparlet-csoda-2l-sparletta-creme-soda-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sparletta Creme Soda, 330 ml</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spa6322-sparletta-creme-soda-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Sparletta Creme Soda, 330 ml</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sparlet-csoda-330-sparletta-creme-soda-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sparletta Morango, 1 L</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spa9474-sparletta-morango-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sparletta Morango, 1 L</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sparlet-mor-1l-sparletta-morango-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sparletta Morango, 2 L</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spa0056-sparletta-morango-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sparletta Morango, 2 L</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sparlet-mor-2l-sparletta-morango-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sparletta Morango, 330 ml</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spa6292-sparletta-morango-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sparletta Morango, 330 ml</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sparlet-mor-330-sparletta-morango-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Sparletta Pine Nut, 2 L</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sparlet-pnut-2l-sparletta-pine-nut-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sprite, 1 L</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spr0939-sprite-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sprite, 2 L</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sprite-2l-sprite-6-x-2-l-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sprite, 330 ml</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sprite-330-sprite-6-x-330-ml--1</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Sprite, 330 ml</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-spr4535-sprite-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sprite, 6 x 2 L</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sprite-2l-sprite-6-x-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sprite, 6 x 330 ml</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-sprite-330-sprite-6-x-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Stretton's Original Gin, 750 ml</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-gin-strettons-original-stretton's-original-gin-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Stretton's Original Gin, 750 ml</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-str0102-stretton-s-original-gin-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Stretton's Wild Berries Gin, 750 ml</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-gin-strettons-wb-stretton's-wild-berries-gin-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Strettons Gin Wild Berries, 750 ml</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-str8061-strettons-gin-wild-berries-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Stretton’s Triple Berry Gin, 750 ml</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-str7606-stretton-s-triple-berry-gin-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Stretton’s Triple Berry Gin, 750 ml</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-gin-strettons-tberry-stretton%E2%80%99s-triple-berry-gin-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Cloudy Apple &amp; Pear, 1 L</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0684-sumo-ceres-cloudy-apple-&amp;-pear-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Cranberry, 1 L</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer8738-sumo-ceres-cranberry-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Delight Manga, 1 L</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer1180-sumo-ceres-delight-manga-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Delight Tropical, 1 L</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer3130-sumo-ceres-delight-tropical-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Full Moon Harvest, 1 L</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0671-sumo-ceres-full-moon-harvest-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Guava, 1 L</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0035-sumo-ceres-guava-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Laranja, 1 L</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0059-sumo-ceres-laranja-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Licha, 1 L</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0295-sumo-ceres-licha-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Licha, 200 ml</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0292-pct-sumo-ceres-licha-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Manga, 1 L</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0257-sumo-ceres-manga-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Maçã, 1 L</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0011-sumo-ceres-maca-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Medley Of Fruits, 1 L</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0660-sumo-ceres-medley-of-fruits-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Medley of Fruits, 200 ml</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0667-pct-sumo-ceres-medley-of-fruits-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Passion Fruit, 1 L</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0127-sumo-ceres-passion-fruit-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Pineapple, 1 L</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0066-sumo-ceres-pineapple-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Pêssego, 1 L</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0219-sumo-ceres-peach-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Seasons Treasure, 1 L</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer5577-sumo-ceres-seasons-treasure-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Secret of the Valley, 1 L</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0714-sumo-ceres-secret-of-the-valley-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Secret Of The Valley, 200 ml</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0711-pct-sumo-ceres-secret-of-the-valley-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Uva branca Hanepoot, 1 L</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0080-sumo-ceres-uva-branca-hanepoot-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Uva Vermelha, 1 L</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0073-sumo-ceres-uva-vermelha-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Uva Vermelha, 200 ml</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0070-pct-sumo-ceres-uva-vermelha-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Sumo Ceres Whispers of Summer, 200 ml</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-cer0148-sumo-ceres-whispers-of-summer-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Sumo Compal Ananás, 1 L</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com3305-sumo-compal-ananas-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Sumo Compal Banana, 1 L</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com2496-sumo-compal-banana-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Sumo Compal Banana, 200 ml</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com2489-sumo-compal-banana-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sumo Compal Banana, 500 ml</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com1482-sumo-compal-banana-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sumo Compal da Terra Caju Manga &amp; Coco, 1 L</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com2120-sumo-compal-da-terra-caju-manga-&amp;-coco-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Sumo Compal da Terra, 1 L</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com5527-sumo-compal-da-terra-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sumo Compal da Terra, 1 L</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5601151975527-sumo-compal-da-terra-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Sumo Compal da Terra, 500 ml</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com3318-sumo-compal-da-terra-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sumo Compal Fresh Frutos Tropicais, 1 L</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com3459-sumo-compal-fresh-frutos-tropicais-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sumo Compal Goiaba, 1 L</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com3308-sumo-compal-goiaba-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Sumo Compal Goiaba, 1 L</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5601151213308-sumo-compal-goiaba-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sumo Compal Laranja, 1 L</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5601151122204-sumo-compal-laranja-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sumo Compal Laranja, 1 L</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com2204-sumo-compal-laranja-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sumo Compal Lichia, 1 L</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com2878-sumo-compal-lichia-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Sumo Compal Maçã Verde, 1 L</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com4452-sumo-compal-maca-verde-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Sumo Compal Multifrutos, 1 L</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5601151973110-sumo-compal-multifrutos-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sumo Compal Multifrutos, 1 L</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com3110-sumo-compal-multifrutos-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sumo Compal MultiFrutos, 500 ml</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com4353-sumo-compal-multifrutos-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Sumo Compal Pera Rocha, 1 L</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-56001151543306-sumo-compal-pera-rocha-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Sumo Compal Pera Rocha, 1 L</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com3306-sumo-compal-pera-rocha-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Sumo Compal Pêssego, 1 L</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com3313-sumo-compal-p%C3%AAssego-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Sumo Compal Tutti-Frutti, 1 L</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-com3457-sumo-compal-tutti-frutti-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Sumo de Manga Cappy, 1 L</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5449000306579-sumo-de-manga-cappy-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Sumo de Manga Cappy, 12 x 350 ml</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-54017726-sumo-de-manga-cappy-12-x-350-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Sumo de Maçã Appletiser, 330 ml</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-app4481-sumo-de-ma%C3%A7%C3%A3-appletiser-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Sumo de Pera Haitai, 238 ml</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/hn-8801105000535-sumo-de-pera-haitai-238-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Sumo de Pêssego Juver Disfruta, 2 L</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv8458-sumo-de-p%C3%AAssego-juver-disfruta-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Sumo de Uva com polpa de Coco Haitai , 238 ml</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/hn-8801105117578-sumo-de-uva-com-polpa-de-coco-haitai-238-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Sumo de Uva Haitai, 238 ml</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/hn-8801105901009-sumo-de-uva-haitai-238-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Sumo de Uva Vermelha Grapetizer, 275 ml</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-gra3385-garrafa-sumo-de-uva-vermelha-grapetizer-275-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Sumo de Uva Vermelha Grapetizer, 330 ml</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-gra4511-lata-sumo-de-uva-vermelha-grapetizer-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta 10 Frutas, 1 L</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0241-sumo-juver-disfruta-10-frutas-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta 10 Frutas, 2 L</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv5451-sumo-juver-disfruta-10-frutas-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta 10 Frutas, 200 ml</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0180-sumo-juver-disfruta-10-frutas-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Ananás, 1 L</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0203-sumo-juver-disfruta-ananas-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Ananás, 2 L</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv4459-sumo-juver-disfruta-ananas-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Ananás, 200 ml</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv4176-sumo-juver-disfruta-ananas-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Frutas Tropicais, 1 L</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0227-sumo-juver-disfruta-frutas-tropicais-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Frutas Tropicais, 200 ml</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv6170-sumo-juver-disfruta-frutas-tropicais-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Laranja, 2 L</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0452-sumo-juver-disfruta-laranja-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Laranja, 200 ml</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0179-sumo-juver-disfruta-laranja-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Maçã, 1 L</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0234-sumo-juver-disfruta-maca-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Maçã, 2 L</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv4453-sumo-juver-disfruta-maca-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Maçã, 200 ml</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv2176-sumo-juver-disfruta-maca-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Pera e Ananás, 1 L</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0258-sumo-juver-disfruta-pera-e-ananas-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Pera e Ananás, 2 L</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv9451-sumo-juver-disfruta-pera-e-ananas-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Pera e Ananás, 200 ml</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv9178-sumo-juver-disfruta-pera-e-ananas-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Pêssego, 1 L</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv0197-sumo-juver-disfruta-p%C3%AAssego-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Sumo Juver Disfruta Pêssego, 200 ml</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-juv8175-sumo-juver-disfruta-p%C3%AAssego-200-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Sumo Santal Cocktail Exótico, 1 L</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6001049049177-sumo-santal-cocktail-ex%C3%B3tico-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Sumo Sunset Ananás, 2 L</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5430002341064-sumo-sunset-ananas-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Sumo Sunset Laranja, 2 L</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5430002341125-sumo-sunset-laranja-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Sumo Sunset Manga, 1 L</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5430002341026-sumo-sunset-manga-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Sumo Sunset Manga, 2 L</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5430002341033-sumo-sunset-manga-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Sumo Sunset Manga, 500 ml</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5430002341019-sumo-sunset-manga-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Sumo Sunset Pêssego, 2 L</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-5430002341095-sumo-sunset-pessego-2-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Tabaco de Mascar Baghban, 50 g</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8906023400501-tabaco-de-mascar-baghban-50-g</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Tanqueray Gin, 750 ml</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-tan0706-tanqueray-gin-750-ml-</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Tanqueray London Dry Gin, 750 ml</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-tanqueray-gin-dry-tanqueray-london-dry-gin-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Tequila Anejo Patrón 100% de Agava, 750 ml</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-tql-anejo-patron-tequila-anejo-patr%C3%B3n-100%-de-agava-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tequila Olmeca Dark Chocolate, 700 ml</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-tql-olmeca-dark-choc-tequila-olmeca-dark-chocolate-700-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Tequila Olmeca Gold, 700 ml</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-tql-olmeca-gold-tequila-olmeca-gold-700-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Tequila Olmeca Reposado, 750 ml</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-olm1865-tequila-olmeca-reposado-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>The Famous Grouse Scotch Whisky, 750 ml</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-w-famous-grouse-the-famous-grouse-scotch-whisky-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Vinho Branco 4th Street Sweet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr9599-vinho-branco-4th-street-sweet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Vinho Branco Adega Vila Real Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr4103-vinho-branco-adega-vila-real-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Vinho Branco Autumm Harvest Frizante, 750 ml</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr6006-vinho-branco-autumm-harvest-frizante-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Vinho Branco Azeitão Bacalhoa JP, 750 ml</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr3220-vinho-branco-azeit-o-bacalhoa-jp-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Vinho Branco Boschendal Blanc Noir, 750 ml</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0397-vinho-branco-boschendal-blanc-noir-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Vinho Branco Boschendal Le Bouquet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0427-vinho-branco-boschendal-le-bouquet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Vinho Branco  Bridão do Tejo Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0939-vinho-branco-brid-o-do-tejo-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Vinho Branco Cadão Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr2127-vinho-branco-cad-o-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Vinho Branco Casa de Sarmento Maugenio, 750 ml</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr01174-vinho-branco-casa-de-sarmento-maugenio-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Vinho Branco Cellar Cask Natural Sweet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1705-vinho-branco-cellar-cask-natural-sweet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Vinho Branco Clos, 1 L</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr8300-pacote-vinho-branco-clos-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Vinho Branco Convento da Vila, 750 ml</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1494-vinho-branco-convento-da-vila-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Vinho Branco do Porto Caves Santa Marta, 750 ml</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vpo0460-vinho-branco-do-porto-caves-santa-marta-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Vinho Branco Dom Campos, 750 ml</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0524-vinho-branco-dom-campos-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Vinho Branco Dona Ermelinda, 750 ml</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0418-vinho-branco-dona-ermelinda-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Vinho Branco Drostdy Hof Extra Light, 750 ml</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0504-vinho-branco-drostdy-hof-extra-light-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Vinho Branco Drostdy Hof Natural Sweet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1069-vinho-branco-drostdy-hof-natural-sweet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Vinho Branco Durbanville Sauvignon Blanc, 750 ml</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0449-vinho-branco-durbanville-sauvignon-blanc-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Vinho Branco Encostas de Penalva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0015-vinho-branco-encostas-de-penalva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Vinho Branco Encostas do Bairro, 5 L</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0883-vinho-branco-encostas-do-bairro-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Vinho Branco Esporão Pé, 750 ml</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vb-pe-tinto-vinho-branco-espor%C3%A3o-p%C3%A9-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Vinho Branco Fleur du Cap Chardonnay, 750 ml</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1200-vinho-branco-fleur-du-cap-chardonnay-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Vinho Branco Fleur du Cap Natural Light ,750 ml</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr2527-vinho-branco-fleur-du-cap-natural-light-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Vinho Branco Frontera Sauvignon Blanc, 750 ml</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr6000-vinho-branco-frontera-sauvignon-blanc-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Vinho Branco Gaseificado Casa de Sarmento Maugenio, 750 ml</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1167-vinho-branco-gaseificado-casa-de-sarmento-maugenio-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Vinho Branco Gaseificado Sarmentinho, 750 ml</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr00061-vinho-branco-gaseificado-sarmentinho-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Vinho Branco Gatão, 1 L</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vb-gatao-vinho-branco-gat%C3%A3o-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Vinho Branco Gatão, 250 ml</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr2425-vinho-branco-gat-o-250-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Vinho Branco Gazela, 750 ml</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vb-gazella-vinho-branco-gazela-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Vinho Branco Grão Vasco Dão, 750 ml</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr5024-vinho-branco-grao-vasco-dao-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Vinho Branco KW Pearly Bay Cape Sweet White, 750 ml</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv7463-vinho-branco-kw-pearly-bay-cape-sweet-white-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Vinho Branco KWV Bonne Esperance Dry White, 750 ml</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv3037-vinho-branco-kwv-bonne-esperance-dry-white-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Vinho Branco KWV Chardonnay, 750 ml</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv4230-vinho-branco-kwv-chardonnay-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Vinho Branco KWV Chenin Blanc, 750 ml</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv0737-vinho-branco-kwv-chenin-blanc-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Vinho Branco KWV Classic Sauvignon Blanc, 750 ml</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv3530-vinho-branco-kwv-classic-sauvignon-blanc-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Vinho Branco KWV Laborie Sauvignon Blanc, 750 ml</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv0839-vinho-branco-kwv-laborie-sauvignon-blanc-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Vinho Branco KWV Pearly Bay Dry White, 750 ml</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv3632-vinho-branco-kwv-pearly-bay-dry-white-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Vinho Branco Laborie Chardonnay, 750 ml</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv7736-vinho-branco-laborie-chardonnay-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Vinho Branco Le Bouquet Boschendal, 750 ml</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0427-vinho-branco-le-bouquet-boschendal-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Vinho Branco Leopards Leap Chardonnay, 750 ml</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr11174-vinho-branco-leopards-leap-chardonnay-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Vinho Branco Leopards Leap Sauvignon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0267-vinho-branco-leopards-leap-sauvignon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Vinho Branco M.J. Freitas, 5 L</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0753-vinho-branco-m-j-freitas-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Vinho Branco Monte Velho, 750 ml</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1566-vinho-branco-monte-velho-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Vinho Branco Nederburg 56 Hundred, 750 ml</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr5056-vinho-branco-nederburg-56-hundred-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Vinho Branco Nederburg Chardonnay, 750 ml</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr5899-vinho-branco-nederburgchardonnay-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Vinho Branco Nederburg Lyric, 750 ml</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr4503-vinho-branco-nederburglyric-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Vinho Branco Orla Maritima, 1 L</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1169-vinho-branco-orla-maritima-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Vinho Branco Overmeer Grand Cru, 5 L</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr8001-vinho-branco-overmeer-grand-cru-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Vinho Branco Overmeer Stein, 5 L</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1001-vinho-branco-overmeer-stein-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Vinho Branco Planalto Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr5505-vinho-branco-planalto-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Vinho Branco Portada Medium Sweet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1080-vinho-branco-portada-medium-sweet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Vinho Branco Quinta Cabriz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0264-vinho-branco-quinta-cabriz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Vinho Branco Rabelo, 750 ml</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1368-vinho-branco-rabelo-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Vinho Branco Segredos De São Miguel, 750 ml</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vb-segredos-s-miguel-vinho-branco-segredos-de-s%C3%A3o-miguel-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Vinho Branco Two Oceans SauvigBlanc, 750 ml</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr0616-vinho-branco-two-oceans-sauvigblanc-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Vinho Branco Zonnebloem Sauvignon Blanc, 750 ml</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr2007-vinho-branco-zonnebloem-sauvignon-blanc-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Vinho do Porto Cambridge Tawny Red , 750 ml</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vpo1444-vinho-do-porto-cambridge-tawny-red-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Vinho do Porto Ramos Pinto Tawny, 750 ml</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vpo0109-vinho-do-porto-ramos-pinto-tawny-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Annabelle Cuvee Branco, 750 ml</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-ve-annabelle-br-vinho-espumante-annabelle-cuvee-branco-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Annabelle Cuvee Rosé, 750 ml</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-ve-annabelle-r0-vinho-espumante-annabelle-cuvee-ros%C3%A9-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Aplauso Rosé, 750 ml</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves1475-vinho-espumante-aplauso-rose-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Blush Bon Courage, 750 ml</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-ve-blush-vinho-espumante-blush-bon-courage-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Brut Gold Tosti 1820, 750 ml</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0750-vinho-espumante-brut-gold-tosti-1820-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Casa de Sarmento Moscatel, 750 ml</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0542-vinho-espumante-casa-de-sarmento-moscatel-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Chamdor Branco sem Álcool, 750 ml</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0007-vinho-espumante-chamdor-branco-sem-alcool-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Chamdor Pêssego sem Álcool, 750 ml</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0304-vinho-espumante-chamdor-p%C3%AAssego-sem-alcool-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Chamdor Tinto sem Álcool, 750 ml</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0106-vinho-espumante-chamdor-tinto-sem-alcool-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Cinzano Pro-Spritz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves7057-vinho-espumante-cinzano-pro-spritz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Vinho Espumante J.C. Le Roux La Chanson, 750 ml</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves4007-vinho-espumante-j.c.-le-roux-la-chanson-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Vinho Espumante J.C. Le Roux La Fleurette, 750 ml</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0503-vinho-espumante-j.c.-le-roux-la-fleurette-750-ml-</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Vinho Espumante J.C. Le Roux Le Domaine, 750 ml</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves2010-vinho-espumante-j.c.-le-roux-le-domaine-750-ml-</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Vinho Espumante JC Le Roux Branco, 750 ml</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-ve-jc-br-vinho-espumante-jc-le-roux-branco-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Jc Le Roux La Chanson Tinto, 750 ml</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-ve-jc-tinto-vinho-espumante-jc-le-roux-la-chanson-tinto-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Vinho Espumante JC Le Roux Rosé, 750 ml</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-ve-jc-ro-vinho-espumante-jc-le-roux-ros%C3%A9-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Martini Aromático Asti, 750 ml</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves5402-vinho-espumante-martini-aromatico-asti-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Martini Medium Dry Rosé, 750 ml</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves4004-vinho-espumante-martini-medium-dry-rose-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Nederburg Cuvee Brut, 750 ml</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves4008-vinho-espumante-nederburgcuvee-brut-750-ml-</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Pongracz Rose, 750 ml</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves4556-vinho-espumante-pongracz-rose-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Pop It Now, 750 ml</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves4089-vinho-espumante-pop-it-now-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Prosecco Tosti, 750 ml</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0759-vinho-espumante-prosecco-tosti-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Quinta do Marques, 750 ml</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves1532-vinho-espumante-quinta-do-marques-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Vinho Espumante sem Álcool Valentino Peach, 750 ml</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0181-vinho-espumante-sem-alcool-valentino-peach-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Vinho Espumante sem Álcool Valentino Pink Coctail, 750 ml</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves5285-vinho-espumante-sem-alcool-valentino-pink-coctail-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Torre de Coimbra, 750 ml</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves1703-vinho-espumante-torre-de-coimbra-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Tosti Butterfly Demi Sec, 750 ml</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0757-vinho-espumante-tosti-butterfly-demi-sec-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Tosti Moscato Brut Gran Cuvee, 750 ml</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves10758-vinho-espumante-tosti-moscato-brut-gran-cuvee-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Tosti Moscato, 750 ml</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves0758-vinho-espumante-tosti-moscato-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Vinho Espumante Wops Frisante Branco, 750 ml</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ves1004-vinho-espumante-wops-frisante-branco-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Vinho Frizante Rosé Autumm Harvest, 750 ml</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vro6827-vinho-frizante-rose-autumm-harvest-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Vinho Porto Ramos Pinto White, 750 ml</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vpo0505-vinho-do-porto-ramos-pinto-white-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Vinho Rosé 4th Street Sweet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vro9605-vinho-rose-4th-street-sweet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Vinho Rosé Alambre Moscatel de Setubal, 750 ml</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr1006-vinho-rose-alambre-moscatel-de-setubal-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Vinho Rosé KWV Pearly Bay Cape Sweet Rosé, 750 ml</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv7432-vinho-rose-kwv-pearly-bay-cape-sweet-rose-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Vinho Rosé KWV Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv2597-vinho-rose-kwv-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Vinho Rosé Nederburg, 750 ml</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vro0909-vinho-rose-nederburg-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Vinho Rosé Palestra Moscatel do Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vbr4743-vinho-rose-palestra-moscatel-do-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Vinho Rosé Pé ,750 ml</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vro3175-vinho-rose-pe-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Vinho Rosé Quinta da Bolota, 750 ml</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vro5415-vinho-rose-quinta-da-bolota-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Vinho Rosé Robertson, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vr-robertson-1500-vinho-ros%C3%A9-robertson-1.5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Vinho Rosé Robertson, 750 ml</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vr-robertson-750-vinho-ros%C3%A9-robertson-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Vinho Tinto 4th Street Sweet, 5 L</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti9178-vinho-tinto-4th-street-sweet-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Vinho Tinto 4th Street Sweet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti9582-vinho-tinto-4th-street-sweet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Vinho Tinto A Culpa é do Benfica, 750 ml</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0137-vinho-tinto-a-culpa-e-do-benfica-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Adega de Borba Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2920-vinho-tinto-adega-de-borba-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Adega de Vila Real Douro Colheita, 750 ml</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3908-vinho-tinto-adega-de-vila-real-douro-colheita-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Adega Vila Real Douro Grande Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti5308-vinho-tinto-adega-vila-real-douro-grande-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Adega Vila Real Douro Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti5100-vinho-tinto-adega-vila-real-douro-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Alabastro Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1858-vinho-tinto-alabastro-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Alandra, 3 L</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1825-vinho-tinto-alandra-3-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Alandra, 750 ml</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1818-vinho-tinto-alandra-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Alma Vitis, 750 ml</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0377-vinho-tinto-alma-vitis-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Alvis Drift Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0706-vinho-tinto-alvis-drift-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Arroba De Pias, 750 ml</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2168-vinho-tinto-arroba-de-pias-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Bacalhoa JP, 750 ml</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1225-vinho-tinto-bacalhoa-jp-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Bridão Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3532-vinho-tinto-brid-o-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Bridão Syrah, 750 ml</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3930-vinho-tinto-bridao-syrah-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cabriz Colheita Selecionada, 750 ml</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0024-vinho-tinto-cabriz-colheita-selecionada-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cabriz Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-cabriz-rsrv-vinho-tinto-cabriz-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cabriz Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0479-vinho-tinto-cabriz-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cabriz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-cabriz-vinho-tinto-cabriz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cadão Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1120-vinho-tinto-cadao-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cadão Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1328-vinho-tinto-cad-o-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cartuxa Colheita, 750 ml</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2022-vinho-tinto-cartuxa-colheita-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cartuxa EA, 750 ml</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0168-vinho-tinto-cartuxa-ea-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Casa da Insua Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3101-vinho-tinto-casa-da-insua-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Casa da Insua, 750 ml</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-casa-insua-vinho-tinto-casa-da-insua-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Casa Da Ínsua Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-casa-insua-rsrv-vinho-tinto-casa-da-%C3%8Dnsua-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Casa de Santar Doc Dão, 750 ml</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0034-vinho-tinto-casa-de-santar-doc-dao-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Casal Garcia Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1301-vinho-tinto-casal-garcia-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Castiço, 750 ml</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1326-vinho-tinto-castico-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Casual Premium, 750 ml</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0255-vinho-tinto-casual-premium-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Casual Tejo, 750 ml</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0170-vinho-tinto-casual-tejo-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Caves Santa Marta Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0934-vinho-tinto-caves-santa-marta-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Vinho Tinto CDS Chão de Gonçalo, 750 ml</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1761-vinho-tinto-cds-chao-de-goncalo-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cellar Cask Natural Sweet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1804-vinho-tinto-cellar-cask-natural-sweet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Cellar Cask, 5 L</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1842-vinho-tinto-cellar-cask-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Chão de Pias, 1 L</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2077-vinho-tinto-chao-de-pias-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Ciconia Touriga Nacional Syrah, 750 ml</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1585-vinho-tinto-ciconia-touriga-nacional-syrah-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Clos Cabernet Sauvignon, 1 L</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti9307-vinho-tinto-clos-cabernet-sauvignon-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Convento da Vila, 750 ml</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2484-vinho-tinto-convento-da-vila-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Dikas Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1017-vinho-tinto-dikas-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Dona Ermelinda, 750 ml</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti00401-vinho-tinto-dona-ermelinda-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Drostdy Claret Select, 750 ml</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1501-vinho-tinto-drostdy-claret-select-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Drostdy Hof Claret, 750 ml</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-drostdy-hof-claret-vinho-tinto-drostdy-hof-claret-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Duas Quintas Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti7559-vinho-tinto-duas-quintas-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Durbanville Cabernet Sauvignon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0326-vinho-tinto-durbanville-cabernet-sauvignon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Vinho Tinto EA Cartuxa, 750 ml</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-ea-cartuxa-vinho-tinto-ea-cartuxa-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Encostas de Penalva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0053-vinho-tinto-encostas-de-penalva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Encostas do Bairro, 5 L</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0784-vinho-tinto-encostas-do-bairro-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Encostas do Bairro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0432-vinho-tinto-encostas-do-bairro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Esporão Colheita, 750 ml</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti6758-vinho-tinto-esporao-colheita-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Esporão Pé Tinto, 750 ml</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4-vt-pe-tinto-vinho-tinto-espor%C3%A3o-p%C3%A9-tinto-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Esteva Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1332-vinho-tinto-esteva-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Fat Bastard Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-fatbast-shiraz-vinho-tinto-fat-bastard-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Fat Bastard Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti7511-vinho-tinto-fat-bastard-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Fat Bastard The Golden Reserve, 750 ml</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-fatbastard-gld-rsrv-vinho-tinto-fat-bastard-the-golden-reserve-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Fleur du Cap Cabernet Sauvignon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti9541-vinho-tinto-fleur-du-cap-cabernet-sauvignon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Fleur du Cap Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1100-vinho-tinto-fleur-du-cap-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Fleur du Cap Pinotage, 750 ml</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0547-vinho-tinto-fleur-du-cap-pinotage-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Flor de Nelas Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0027-vinho-tinto-flor-de-nelas-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Flor D´Penalva Dão, 750 ml</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1371-vinho-tinto-flor-d-penalva-da-o-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Fonte da Serrana, 750 ml</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0536-vinho-tinto-fonte-da-serrana-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Frontera Cabernet Sauvignon, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti8009-vinho-tinto-frontera-cabernet-sauvignon-1-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Frontera Cabernet Sauvignon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti9001-vinho-tinto-frontera-cabernet-sauvignon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Frontera Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti6009-vinho-tinto-frontera-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Galitos, 750 ml</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2441-vinho-tinto-galitos-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Galodoro Lisboa, 750 ml</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti8375-vinho-tinto-galodoro-lisboa-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Galodoro, 3 L</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti8399-vinho-tinto-galodoro-3-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Glen Carlou Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-glen-carlou-merlot-vinho-tinto-glen-carlou-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Gourmet, 1 L</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti4883-vinho-tinto-gourmet-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Grão Vasco Dão, 750 ml</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti5017-vinho-tinto-grao-vasco-dao-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Instinto Forte, 750 ml</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0143-vinho-tinto-instinto-forte-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Vinho Tinto JP Azeitão, 750 ml</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-jp-azeitao-vinho-tinto-jp-azeit%C3%A3o-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Kanonkop Kadette, 750 ml</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-kanonkop-kdt-vinho-tinto-kanonkop-kadette-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Bonne Esperance Dry Red, 750 ml</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv3006-vinho-tinto-kwv-bonne-esperance-dry-red-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Cape Ruby, 750 ml</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv5957-vinho-tinto-kwv-cape-ruby-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Cape Tawny, 750 l</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv5988-vinho-tinto-kwv-cape-tawny-750-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Classic Cabernet Savignon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv0332-vinho-tinto-kwv-classic-cabernet-savignon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Classic Collection Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv0639-vinho-tinto-kwv-classic-collection-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Classic Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv0533-vinho-tinto-kwv-classic-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Laborie Merlot Cabernet Sauvignon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv7836-vinho-tinto-kwv-laborie-merlot-cabernet-sauvignon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Laborie Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv1936-vinho-tinto-kwv-laborie-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Laborie Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv1386-vinho-tinto-kwv-laborie-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Pearly Bay Dry Red, 750 ml</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv07432-vinho-tinto-kwv-pearly-bay-dry-red-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Pinotage, 750 ml</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv0530-vinho-tinto-kwv-pinotage-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Vinho Tinto KWV Roodeberg, 750 ml</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-kwv0233-vinho-tinto-kwv-roodeberg-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Leopards Leap Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0601-vinho-tinto-leopards-leap-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Vinho Tinto M.J. Freitas, 5 L</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0722-vinho-tinto-m-j-freitas-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Madxa, 750 ml</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti5149-vinho-tinto-madxa-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Marques de Borba, 750 ml</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3032-vinho-tinto-marques-de-borba-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Milenio Dão, 750 ml</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0312-vinho-tinto-milenio-dao-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Monte Damião, 750 ml</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0316-vinho-tinto-monte-dami-o-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Monte Velho Esporão, 750 ml</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-monte-velho-esp-vinho-tinto-monte-velho-espor%C3%A3o-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Monte Velho, 750 ml</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1412-vinho-tinto-monte-velho-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Nederburg 56 Hundred Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti8025-vinho-tinto-nederburg56-hundred-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Nederburg Baronne, 750 ml</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti6861-vinho-tinto-nederburgbaronne-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Nederburg Cabernet Sauvignon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1862-vinho-tinto-nederburgcabernet-sauvignon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Nederburg Duet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti8706-vinho-tinto-nederburgduet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Nederburg Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1436-vinho-tinto-nederburgmerlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Nederburg Pinotage, 750 ml</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3873-vinho-tinto-nederburgpinotage-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Nederburg Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1506-vinho-tinto-nederburgshiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Orla Maritima, 1 L</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1152-vinho-tinto-orla-maritima-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Overmeer Red, 5 L</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti8004-vinho-tinto-overmeer-red-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Palavrar Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0041-vinho-tinto-palavrar-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Pedra Cancela Seleção, 750 ml</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2009-vinho-tinto-pedra-cancela-selec-o-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Porta da Ravessa, 750 ml</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3062-vinho-tinto-porta-da-ravessa-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Portada Medium Sweet, 750 ml</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0489-vinho-tinto-portada-medium-sweet-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Portas de Lisboa, 750 ml</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti4007-vinho-tinto-portas-de-lisboa-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Porto Ferreira Tawany, 750 ml</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-porto-ferreira-vinho-tinto-porto-ferreira-tawany-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Pouca Roupa, 750 ml</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2102-vinho-tinto-pouca-roupa-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Pé, 750 ml</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3199-vinho-tinto-pe-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Quatro Ventos Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1651-vinho-tinto-quatro-ventos-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Quinta da Terrugem, 750 ml</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3402-vinho-tinto-quinta-da-terrugem-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Rabelo, 750 ml</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1283-vinho-tinto-rabelo-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Rapariga da Quinta Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1044-vinho-tinto-rapariga-da-quinta-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Ravasqueira Reserva da Família, 750 ml</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-rsrv-familia-vinho-tinto-ravasqueira-reserva-da-fam%C3%ADlia-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Reguengos Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti3187-vinho-tinto-reguengos-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Reserva Caves Santa Marta Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti01412-vinho-tinto-reserva-caves-santa-marta-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Reserva Da Amizade, 750 ml</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-rsrv-amizade-vinho-tinto-reserva-da-amizade-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Reserva da Familia, 750 ml</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0032-vinho-tinto-reserva-da-familia-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Segredos de São Miguel, 750 ml</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2179-vinho-tinto-segredos-de-s-o-miguel-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Sericaia, 750 ml</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0546-vinho-tinto-sericaia-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Silk And Spices, 750 ml</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vt-slk-spices-vinho-tinto-silk-and-spices-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Spier Cabernet/Merlot Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2637-vinho-tinto-spier-cabernet-merlot-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Spier Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0404-vinho-tinto-spier-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Spier Pinotage, 750 ml</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0398-vinho-tinto-spier-pinotage-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Terras de Alleu, 750 ml</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti2406-vinho-tinto-terras-de-alleu-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Vinho Tinto The Chocolate Block, 750 ml</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti7665-vinho-tinto-the-chocolate-block-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Two Oceans Cabernet Sauvignon Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0579-vinho-tinto-two-oceans-cabernet-sauvignon-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Two Oceans Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1085-vinho-tinto-two-oceans-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Vale Dona Maria Douro Superior, 750 ml</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti1943-vinho-tinto-vale-dona-maria-douro-superior-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Vale Dona Maria Douro, 750 ml</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0151-vinho-tinto-vale-dona-maria-douro-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Vale Perdido, 750 ml</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti5005-vinho-tinto-vale-perdido-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Vinha Maria Premium, 750 ml</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti5160-vinho-tinto-vinha-maria-premium-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Vinha Maria Reserva, 750 ml</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti6273-vinho-tinto-vinha-maria-reserva-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Vinha Maria, 750 ml</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti6174-vinho-tinto-vinha-maria-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Zonnebloem Cabernet Sauvignon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti8906-vinho-tinto-zonnebloem-cabernet-sauvignon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Zonnebloem Merlot, 750 ml</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti0908-vinho-tinto-zonnebloem-merlot-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Vinho Tinto Zonnebloem Shiraz, 750 ml</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vti6891-vinho-tinto-zonnebloem-shiraz-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Vinho Tosti Vermouth Di Torino, 1 L</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-tos0108-vinho-tosti-vermouth-di-torino-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Vinho Tosti Vermouth Rosso, 1 L</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-tos0105-vinho-tosti-vermouth-rosso-1-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Vinho Verde Bico Amarelo, 750 ml</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vve0105-vinho-verde-bico-amarelo-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Vinho Verde Casal Garcia Rosé, 750 ml</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vv-casal-garcia-r-vinho-verde-casal-garcia-ros%C3%A9-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Vinho Verde Casal Garcia, 750 ml</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vv-casal-garcia-br-vinho-verde-casal-garcia-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Vinho Verde Casal Garcia, 750 ml</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vve8308-vinho-verde-casal-garcia-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Vinho Verde Gazela, 750 ml</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vve5505-vinho-verde-gazela-branco-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Vinho Verde Lagosta, 750 ml</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-vv-lagosta-vinho-verde-lagosta-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Vinho Verde Muralhas de Monção, 750 ml</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vve1119-vinho-verde-muralhas-de-moncao-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Vinho Verde Porta Nova, 750 ml</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vvr9071-vinho-verde-porta-nova-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Vinho Verde Santola, 750 ml</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vve4013-vinho-verde-santola-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Vodka Russian Bear Energy Fusion, 750 ml</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-rus5930-vodka-russian-bear-energy-fusion-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Vodka Russian Bear Passion Fruit, 750 ml</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-rus6555-vodka-russian-bear-passion-fruit-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Whisky Chivas Regal 12 Anos, 750 ml</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-chi0395-whisky-chivas-regal-12-anos-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Whisky Glenbrynth 3 Anos, 750 ml</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-gle6667-whisky-glenbrynth-3-anos-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Whisky Grants, 750 ml</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-gra0046-whisky-grants-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Whisky Jack Daniels Tennessee, 750 ml</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-jac0466-whisky-jack-daniels-tennessee-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Whisky Jameson, 750 ml</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-jam3029-whisky-jameson-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Whisky Johnnie Walker Black Label 12 Anos, 750 ml</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-joh4004-whisky-johnnie-walker-black-label-12-anos-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Whisky Johnnie Walker Red Label, 750 ml</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-joh4074-whisky-johnnie-walker-red-label-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Whisky Scottish Leader, 750 ml</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-sco7830-whisky-scottish-leader-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Whitley Neill Gin Aloe &amp; Cucumber, 750 ml</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-whi4917-whitley-neill-gin-aloe-cucumber-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Whitley Neill Gin Blood Orange, 750 ml</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-whi4715-whitley-neill-gin-blood-orange-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Whitley Neill Gin Lemongrass and Ginger, 750 ml</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-whi4739-whitley-neill-gin-lemongrass-and-ginger-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Whitley Neill Gin Original, 750 ml</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-whi9688-whitley-neill-gin-original-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Whitley Neill Gin Protea and Hibiscus, 750 ml</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-whi4924-whitley-neill-gin-protea-and-hibiscus-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Whitley Neill Gin Raspberry, 750 ml</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-whi4180-whitley-neill-gin-raspberry-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Wild Turkey Whiskey, 700 ml</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-wil0012-wild-turkey-whiskey-700-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Wyborowa Vodka, 750 ml</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-wdk-wyborowa-wyborowa-vodka-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Xarope Concentrado Dias Kola Tonic, 750 ml</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8908000861299-bhavnagari-gathiya-gopal-namkeen-85-g</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Xarope Concentrado Dias Rosa, 750 ml</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-7622201423193-bebida-de-chocolate-cadbury-bournvita-1-kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Xarope Concentrado Shree Yogi Gulab, 750 ml</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8901104800713-xarope-concentrado-shree-yogi-gulab-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Xarope Concentrado Shree Yogi Kala Khatta, 750 ml</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8901104800775-xarope-concentrado-shree-yogi-kala-khatta-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Xarope Concentrado Shree Yogi Orange, 750 ml</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8901104800737-xarope-concentrado-shree-yogi-orange-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Xarope Cream Soda Pakola, 800 ml</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8964000661314-xarope-cream-soda-pakola-800-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Xarope de Manga Kalvert,  700 ml</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8906015310368-xarope-de-manga-kalvert-700-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Xarope de Rosas Kalvert, 700 ml</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8906015310115-xarope-de-rosas-kalvert-700-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Xarope Dias Black Curranrt, 750 ml</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-600315800032-xarope-dias-black-curranrt-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Xarope Dias Capile Cordial, 750 ml</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-dia0667-xarope-dias-capile-cordial-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Xarope Dias Capile, 750 ml</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6003158000667-xarope-dias-capile-750-ml-</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Xarope Dias Cream Soda, 750 ml</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-dia0179-xarope-dias-cream-soda-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Xarope Dias Cream Soda, 750 ml</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6003158000179-xarope-dias-cream-soda-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Xarope Dias Grenadine, 750 ml</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6003158000100-xarope-dias-grenadine-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Xarope Dias Grenadine, 750 ml</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-dia0100-xarope-dias-grenadine-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Xarope Dias Groselha, 750 ml</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-600358000001-xarope-dias-groselha-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Xarope Dias Groselha, 750 ml</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-dia0001-xarope-dias-groselha-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Xarope Dias Lima, 750 ml</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6003158000094-xarope-dias-lima-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Xarope Dias Morango, 750 ml</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6003158000650-xarope-dias-morango-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Xarope Dias Morango, 750 ml</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-dia0650-xarope-dias-morango-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Xarope Dias Passion Fruit, 750 ml</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6003158000117-xarope-dias-passion-fruit-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Annar, 750 ml</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-3217417-xarope-para-cocktail-ajwa-annar-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Badam Pista, 750 ml</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321715-xarope-para-cocktail-ajwa-badam-pista-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Blueberry, 750 ml</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321747-xarope-para-cocktail-ajwa-blueberry-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Butter Scotch, 750 ml</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-3217413-xarope-para-cocktail-ajwa-butter-scotch-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Falsa, 750 ml</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321712-xarope-para-cocktail-ajwa-falsa-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Ice Cream, 750 ml</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321716-xarope-para-cocktail-ajwa-ice-cream-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Kacchi Keri, 750 ml</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321708-xarope-para-cocktail-ajwa-kacchi-keri-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Kesar Pista, 750 ml</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321714-xarope-para-cocktail-ajwa-kesar-pista-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Lemon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321706-xarope-para-cocktail-ajwa-lemon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Limbu Paani, 750 ml</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321705-xarope-para-cocktail-ajwa-limbu-paani-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Litchi, 750 ml</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321713-xarope-para-cocktail-ajwa-litchi-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Malai Kulfi, 750 ml</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-3217410-xarope-para-cocktail-ajwa-malai-kulfi-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Mango, 750 ml</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321707-xarope-para-cocktail-ajwa-mango-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Mastani Falooda, 750 ml</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321711-xarope-para-cocktail-ajwa-mastani-falooda-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Mawa Malai, 750 ml</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-3217414-xarope-para-cocktail-ajwa-mawa-malai-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Milky Chocolate, 750 ml</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321749-xarope-para-cocktail-ajwa-milky-chocolate-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Mosambi, 750 ml</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-3217412-xarope-para-cocktail-ajwa-mosambi-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Orange, 750 ml</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321710-xarope-para-cocktail-ajwa-orange-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Pink Guava, 750 ml</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-3217411-xarope-para-cocktail-ajwa-pink-guava-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Rose Pettals, 750 ml</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321701-xarope-para-cocktail-ajwa-rose-pettals-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Rose, 750 ml</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321704-xarope-para-cocktail-ajwa-rose-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Strawberry, 750 ml</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321746-xarope-para-cocktail-ajwa-strawberry-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Tangy Pineapple, 750 ml</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321702-xarope-para-cocktail-ajwa-tangy-pineapple-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Variyali, 750 ml</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-321745-xarope-para-cocktail-ajwa-variyali-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Xarope para Cocktail Ajwa Zeera Lemon, 750 ml</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-3217416-xarope-para-cocktail-ajwa-zeera-lemon-750-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Yuka Balde Preto Para Gelo com Pegas, Pequeno</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/od0213-yuka-balde-preto-para-gelo-com-pegas-pequeno</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Água Bonaqua, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-bon5478-agua-bonaqua-1.5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Água Bonaqua, 2.5 L</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-bon2215-agua-bonaqua-2.5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Água das Pedras Frutos Vermelhos, 4 x 250 ml</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-56055702-agua-das-pedras-frutos-vermelhos-4-x-250-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Água das Pedras Limão, 4 x 250 ml</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-56002980-%C3%81gua-das-pedras-lim%C3%A3o-4-x-250-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Água das Pedras Maracujá, 4 x 250 ml</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-56030488-%C3%81gua-das-pedras-maracuj%C3%A1-4-x-250-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Água Das Pedras Salgadas Frutos Vermelhos, 250 ml</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ped5702-agua-com-gas-pedras-salgadas-frutos-vermelhos-250-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Água Das Pedras Salgadas, 250 ml</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-56004083-agua-das-pedras-salgadas-250-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Água Das Pedras Salgadas, 250 ml</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ped4083-agua-com-gas-pedras-salgadas-250-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Água das Pedras Tangerina, 4 x 250 ml</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-56029888-%C3%81gua-das-pedras-tangerina-4-x-250-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Água de Coco com Polpa Regal Thai, 290 ml</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-8858768090892-agua-de-coco-com-polpa-regal-thai-290-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Água de Coco Vita Coco, 330 ml</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/lm-898999000022-agua-de-coco-vita-coco-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Água Mineral Aquaplus, 1.75 L</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6009832820576-agua-mineral-aquaplus-1-75-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Água Mineral Aquaplus, 600 ml</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6009832820507-agua-mineral-aquaplus-600-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Água Mineral Bonaqua, 500 ml</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-bon2426-agua-bonaqua-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Água Mineral Matisana, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mat5027-agua-mineral-matisana-1.5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Água Mineral Matisana, 5 L</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mat5034-agua-mineral-matisana-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Água Mineral Matisana, 500 ml</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mat5010-agua-mineral-matisana-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Água Mineral Montemor, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mon0154-agua-mineral-montemor-1.5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Água Mineral Montemor, 5 L</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mon0505-agua-mineral-montemor-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Água Mineral Montemor, 500 ml</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-mon0055-agua-mineral-montemor-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Água Mineral Namaacha, 5 L</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6009670370011-agua-mineral-namaacha-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Água Mineral Vengo, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ven0985-agua-mineral-vengo-1.5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Água Mineral Vengo, 500 ml</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-ven0978-agua-mineral-vengo-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Água Mineral Vumba, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6009646581007-agua-mineral-vumba-1-5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Água Mineral Vumba, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vum1007-agua-mineral-vumba-1.5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Água Mineral Vumba, 500 ml</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-vum1014-agua-mineral-vumba-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Água Namaacha, 1.5 L</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6009670370004-%C3%81gua-namaacha-1.5-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Água Namaacha, 500 ml</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6009670370028-%C3%81gua-namaacha-500-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Água Tónica Schweppes, 330 ml</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/tm-sch6390-agua-tonica-schweppes-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Água Tónica Schweppes, 6 x 330 ml</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/as4u-swps-tonica-lt-%C3%81gua-t%C3%B3nica-schweppes-6-x-330-ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Água Vumba, 500 ml</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>https://bazara.co.mz/sac-6009646581014-%C3%81gua-vumba-500-ml</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
